--- a/data/database tables.xlsx
+++ b/data/database tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank\F1-pole-predictor\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFD5EA1-C7F7-4531-8070-AFDE8C84ACAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725A8D78-BA98-4072-9217-1D53FD7FEC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="3648" windowWidth="11124" windowHeight="20280" activeTab="1" xr2:uid="{E4C73FFF-82EE-4C10-9B50-E8D5EF53ED6A}"/>
+    <workbookView xWindow="1188" yWindow="3828" windowWidth="12624" windowHeight="20280" xr2:uid="{E4C73FFF-82EE-4C10-9B50-E8D5EF53ED6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="88">
   <si>
     <t>user_id</t>
   </si>
@@ -88,30 +88,6 @@
   </si>
   <si>
     <t>stops</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>g</t>
   </si>
   <si>
     <t>driver1</t>
@@ -299,6 +275,33 @@
   <si>
     <t>Abu Dhabi - 26 November</t>
   </si>
+  <si>
+    <t>race_date</t>
+  </si>
+  <si>
+    <t>scores</t>
+  </si>
+  <si>
+    <t>score_id</t>
+  </si>
+  <si>
+    <t>circuit_id</t>
+  </si>
+  <si>
+    <t>run a databse query that checks whether there is a race_id for which no points have been calculated and INSERTS points into scores if there is a new race</t>
+  </si>
+  <si>
+    <t>raceName</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>circuitName</t>
+  </si>
+  <si>
+    <t>race_details</t>
+  </si>
 </sst>
 </file>
 
@@ -329,20 +332,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF3333FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3333FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,8 +357,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -364,79 +384,36 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,251 +735,193 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF37304-7D2E-4BDA-8315-85D98326A625}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="B14:F14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="2" width="18.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="5" width="18.88671875" style="8" customWidth="1"/>
+    <col min="6" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="26" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="C3" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C5" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D6" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="D8" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10">
-        <v>2</v>
-      </c>
+      <c r="B22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
-        <v>1</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="10">
-        <v>3</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10">
-        <v>2</v>
-      </c>
+      <c r="B23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="10">
-        <v>5</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10">
-        <v>2</v>
-      </c>
+      <c r="B24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="10">
-        <v>4</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10">
-        <v>2</v>
-      </c>
+      <c r="B25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="10">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10">
-        <v>2</v>
-      </c>
+      <c r="B26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="10">
-        <v>7</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10">
-        <v>2</v>
-      </c>
+      <c r="B27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="10">
-        <v>5</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10">
-        <v>2</v>
-      </c>
+      <c r="B28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1014,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170F5E4A-D2DE-4D18-B068-A8CD23CBCF98}">
   <dimension ref="A1:E515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B463" workbookViewId="0">
-      <selection sqref="A1:E515"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1034,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>8</v>
@@ -1051,13 +970,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1068,13 +987,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,13 +1004,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1102,13 +1021,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1119,13 +1038,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1136,13 +1055,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1153,13 +1072,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1170,13 +1089,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1187,13 +1106,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1204,13 +1123,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1221,13 +1140,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1238,13 +1157,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1255,13 +1174,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1272,13 +1191,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1289,13 +1208,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,13 +1225,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1323,13 +1242,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1340,13 +1259,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1357,13 +1276,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1374,13 +1293,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
         <v>29</v>
       </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1391,13 +1310,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1408,13 +1327,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1425,13 +1344,13 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1442,13 +1361,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1459,13 +1378,13 @@
         <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1476,13 +1395,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1493,13 +1412,13 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,13 +1429,13 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1527,13 +1446,13 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,13 +1463,13 @@
         <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1561,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1578,13 +1497,13 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
         <v>34</v>
       </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1595,13 +1514,13 @@
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,13 +1531,13 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1629,13 +1548,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1646,13 +1565,13 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1663,13 +1582,13 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1680,13 +1599,13 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
         <v>28</v>
       </c>
-      <c r="D39" t="s">
-        <v>36</v>
-      </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1697,13 +1616,13 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1714,13 +1633,13 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1731,13 +1650,13 @@
         <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D42" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1748,13 +1667,13 @@
         <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1765,13 +1684,13 @@
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1782,13 +1701,13 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1799,13 +1718,13 @@
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D46" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1816,13 +1735,13 @@
         <v>15</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1833,13 +1752,13 @@
         <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1850,13 +1769,13 @@
         <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1867,13 +1786,13 @@
         <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1884,13 +1803,13 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1901,13 +1820,13 @@
         <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1918,13 +1837,13 @@
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1935,13 +1854,13 @@
         <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1952,13 +1871,13 @@
         <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1969,13 +1888,13 @@
         <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1986,13 +1905,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2003,13 +1922,13 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2020,13 +1939,13 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2037,13 +1956,13 @@
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D60" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2054,13 +1973,13 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2071,13 +1990,13 @@
         <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2088,13 +2007,13 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2105,13 +2024,13 @@
         <v>21</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2122,13 +2041,13 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2139,13 +2058,13 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D66" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2156,13 +2075,13 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D67" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2173,13 +2092,13 @@
         <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2190,13 +2109,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2207,13 +2126,13 @@
         <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D70" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2224,13 +2143,13 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2241,13 +2160,13 @@
         <v>29</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2258,13 +2177,13 @@
         <v>1</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2275,13 +2194,13 @@
         <v>40</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D74" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -2292,13 +2211,13 @@
         <v>3</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -2309,13 +2228,13 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E76" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -2326,13 +2245,13 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E77" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2343,13 +2262,13 @@
         <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E78" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2360,13 +2279,13 @@
         <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D79" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E79" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2377,13 +2296,13 @@
         <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E80" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -2394,13 +2313,13 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D81" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -2411,13 +2330,13 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -2428,13 +2347,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D83" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,13 +2364,13 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D84" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E84" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -2462,13 +2381,13 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -2479,13 +2398,13 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D86" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -2496,13 +2415,13 @@
         <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E87" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -2513,13 +2432,13 @@
         <v>18</v>
       </c>
       <c r="C88" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E88" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -2530,13 +2449,13 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E89" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -2547,13 +2466,13 @@
         <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D90" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -2564,13 +2483,13 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E91" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -2581,13 +2500,13 @@
         <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D92" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E92" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -2598,13 +2517,13 @@
         <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E93" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -2615,13 +2534,13 @@
         <v>39</v>
       </c>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D94" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E94" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -2632,13 +2551,13 @@
         <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E95" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -2649,13 +2568,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E96" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -2666,13 +2585,13 @@
         <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D97" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,13 +2602,13 @@
         <v>29</v>
       </c>
       <c r="C98" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -2700,13 +2619,13 @@
         <v>22</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E99" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -2717,13 +2636,13 @@
         <v>40</v>
       </c>
       <c r="C100" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -2734,13 +2653,13 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D101" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E101" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -2751,13 +2670,13 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E102" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -2768,13 +2687,13 @@
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D103" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -2785,13 +2704,13 @@
         <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D104" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2802,13 +2721,13 @@
         <v>23</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -2819,13 +2738,13 @@
         <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -2836,13 +2755,13 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D107" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E107" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -2853,13 +2772,13 @@
         <v>11</v>
       </c>
       <c r="C108" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D108" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -2870,13 +2789,13 @@
         <v>37</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D109" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E109" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -2887,13 +2806,13 @@
         <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D110" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E110" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -2904,13 +2823,13 @@
         <v>20</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D111" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E111" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -2921,13 +2840,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E112" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -2938,13 +2857,13 @@
         <v>17</v>
       </c>
       <c r="C113" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E113" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -2955,13 +2874,13 @@
         <v>41</v>
       </c>
       <c r="C114" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E114" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -2972,13 +2891,13 @@
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D115" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E115" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -2989,13 +2908,13 @@
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E116" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3006,13 +2925,13 @@
         <v>40</v>
       </c>
       <c r="C117" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D117" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -3023,13 +2942,13 @@
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D118" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E118" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -3040,13 +2959,13 @@
         <v>5</v>
       </c>
       <c r="C119" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D119" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E119" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -3057,13 +2976,13 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D120" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E120" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3074,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D121" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E121" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -3091,13 +3010,13 @@
         <v>22</v>
       </c>
       <c r="C122" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D122" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E122" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -3108,13 +3027,13 @@
         <v>38</v>
       </c>
       <c r="C123" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D123" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -3125,13 +3044,13 @@
         <v>39</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D124" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E124" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
@@ -3142,13 +3061,13 @@
         <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D125" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E125" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -3159,13 +3078,13 @@
         <v>36</v>
       </c>
       <c r="C126" t="s">
+        <v>47</v>
+      </c>
+      <c r="D126" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" t="s">
         <v>55</v>
-      </c>
-      <c r="D126" t="s">
-        <v>51</v>
-      </c>
-      <c r="E126" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -3176,13 +3095,13 @@
         <v>37</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D127" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E127" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -3193,13 +3112,13 @@
         <v>38</v>
       </c>
       <c r="C128" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E128" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -3210,13 +3129,13 @@
         <v>39</v>
       </c>
       <c r="C129" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D129" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E129" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -3227,13 +3146,13 @@
         <v>41</v>
       </c>
       <c r="C130" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D130" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E130" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -3244,13 +3163,13 @@
         <v>11</v>
       </c>
       <c r="C131" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E131" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
@@ -3261,13 +3180,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E132" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -3278,13 +3197,13 @@
         <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D133" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E133" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -3295,13 +3214,13 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E134" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -3312,13 +3231,13 @@
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E135" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -3329,13 +3248,13 @@
         <v>25</v>
       </c>
       <c r="C136" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D136" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E136" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -3346,13 +3265,13 @@
         <v>29</v>
       </c>
       <c r="C137" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D137" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E137" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -3363,13 +3282,13 @@
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D138" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E138" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
@@ -3380,13 +3299,13 @@
         <v>33</v>
       </c>
       <c r="C139" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E139" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -3397,13 +3316,13 @@
         <v>17</v>
       </c>
       <c r="C140" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E140" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -3414,13 +3333,13 @@
         <v>3</v>
       </c>
       <c r="C141" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D141" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E141" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
@@ -3431,13 +3350,13 @@
         <v>36</v>
       </c>
       <c r="C142" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D142" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E142" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -3448,13 +3367,13 @@
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D143" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E143" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -3465,13 +3384,13 @@
         <v>22</v>
       </c>
       <c r="C144" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D144" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E144" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3482,13 +3401,13 @@
         <v>18</v>
       </c>
       <c r="C145" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E145" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
@@ -3499,13 +3418,13 @@
         <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D146" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E146" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
@@ -3516,13 +3435,13 @@
         <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D147" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E147" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
@@ -3533,13 +3452,13 @@
         <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D148" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E148" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -3550,13 +3469,13 @@
         <v>21</v>
       </c>
       <c r="C149" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E149" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
@@ -3567,13 +3486,13 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D150" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E150" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -3584,13 +3503,13 @@
         <v>40</v>
       </c>
       <c r="C151" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E151" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3601,13 +3520,13 @@
         <v>36</v>
       </c>
       <c r="C152" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D152" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E152" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
@@ -3618,13 +3537,13 @@
         <v>3</v>
       </c>
       <c r="C153" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D153" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E153" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3635,13 +3554,13 @@
         <v>17</v>
       </c>
       <c r="C154" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E154" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
@@ -3652,13 +3571,13 @@
         <v>25</v>
       </c>
       <c r="C155" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D155" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E155" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3669,13 +3588,13 @@
         <v>13</v>
       </c>
       <c r="C156" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D156" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E156" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
@@ -3686,13 +3605,13 @@
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D157" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E157" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3703,13 +3622,13 @@
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D158" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E158" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
@@ -3720,13 +3639,13 @@
         <v>33</v>
       </c>
       <c r="C159" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E159" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3737,13 +3656,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D160" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E160" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
@@ -3754,13 +3673,13 @@
         <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D161" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E161" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3771,13 +3690,13 @@
         <v>1</v>
       </c>
       <c r="C162" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D162" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E162" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -3788,13 +3707,13 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D163" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E163" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3805,13 +3724,13 @@
         <v>37</v>
       </c>
       <c r="C164" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D164" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E164" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -3822,13 +3741,13 @@
         <v>41</v>
       </c>
       <c r="C165" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D165" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E165" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -3839,13 +3758,13 @@
         <v>11</v>
       </c>
       <c r="C166" t="s">
+        <v>41</v>
+      </c>
+      <c r="D166" t="s">
         <v>49</v>
       </c>
-      <c r="D166" t="s">
-        <v>57</v>
-      </c>
       <c r="E166" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
@@ -3856,13 +3775,13 @@
         <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D167" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E167" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
@@ -3873,13 +3792,13 @@
         <v>18</v>
       </c>
       <c r="C168" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D168" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E168" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -3890,13 +3809,13 @@
         <v>39</v>
       </c>
       <c r="C169" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D169" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E169" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
@@ -3907,13 +3826,13 @@
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D170" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E170" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
@@ -3924,13 +3843,13 @@
         <v>29</v>
       </c>
       <c r="C171" t="s">
+        <v>41</v>
+      </c>
+      <c r="D171" t="s">
         <v>49</v>
       </c>
-      <c r="D171" t="s">
-        <v>57</v>
-      </c>
       <c r="E171" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -3941,13 +3860,13 @@
         <v>38</v>
       </c>
       <c r="C172" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D172" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E172" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
@@ -3958,13 +3877,13 @@
         <v>40</v>
       </c>
       <c r="C173" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D173" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E173" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -3975,13 +3894,13 @@
         <v>20</v>
       </c>
       <c r="C174" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" t="s">
         <v>49</v>
       </c>
-      <c r="D174" t="s">
-        <v>57</v>
-      </c>
       <c r="E174" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
@@ -3992,13 +3911,13 @@
         <v>23</v>
       </c>
       <c r="C175" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D175" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E175" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
@@ -4009,13 +3928,13 @@
         <v>21</v>
       </c>
       <c r="C176" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E176" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4026,13 +3945,13 @@
         <v>22</v>
       </c>
       <c r="C177" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E177" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
@@ -4043,13 +3962,13 @@
         <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D178" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E178" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -4060,13 +3979,13 @@
         <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D179" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E179" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -4077,13 +3996,13 @@
         <v>38</v>
       </c>
       <c r="C180" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D180" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E180" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -4094,13 +4013,13 @@
         <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D181" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E181" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
@@ -4111,13 +4030,13 @@
         <v>39</v>
       </c>
       <c r="C182" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D182" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E182" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -4128,13 +4047,13 @@
         <v>17</v>
       </c>
       <c r="C183" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E183" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -4145,13 +4064,13 @@
         <v>13</v>
       </c>
       <c r="C184" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D184" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E184" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
@@ -4162,13 +4081,13 @@
         <v>33</v>
       </c>
       <c r="C185" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D185" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E185" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
@@ -4179,13 +4098,13 @@
         <v>37</v>
       </c>
       <c r="C186" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D186" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E186" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -4196,13 +4115,13 @@
         <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D187" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E187" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -4213,13 +4132,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D188" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E188" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -4230,13 +4149,13 @@
         <v>41</v>
       </c>
       <c r="C189" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D189" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E189" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
@@ -4247,13 +4166,13 @@
         <v>25</v>
       </c>
       <c r="C190" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D190" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E190" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -4264,13 +4183,13 @@
         <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D191" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E191" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -4281,13 +4200,13 @@
         <v>12</v>
       </c>
       <c r="C192" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D192" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E192" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -4298,13 +4217,13 @@
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D193" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E193" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -4315,13 +4234,13 @@
         <v>29</v>
       </c>
       <c r="C194" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D194" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E194" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -4332,13 +4251,13 @@
         <v>5</v>
       </c>
       <c r="C195" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D195" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E195" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -4349,13 +4268,13 @@
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D196" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E196" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
@@ -4366,13 +4285,13 @@
         <v>18</v>
       </c>
       <c r="C197" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D197" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E197" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
@@ -4383,13 +4302,13 @@
         <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D198" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E198" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -4400,13 +4319,13 @@
         <v>22</v>
       </c>
       <c r="C199" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D199" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E199" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
@@ -4417,13 +4336,13 @@
         <v>36</v>
       </c>
       <c r="C200" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D200" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E200" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -4434,13 +4353,13 @@
         <v>23</v>
       </c>
       <c r="C201" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D201" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E201" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -4451,13 +4370,13 @@
         <v>21</v>
       </c>
       <c r="C202" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D202" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E202" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
@@ -4468,13 +4387,13 @@
         <v>36</v>
       </c>
       <c r="C203" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D203" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E203" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
@@ -4485,13 +4404,13 @@
         <v>12</v>
       </c>
       <c r="C204" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D204" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E204" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -4502,13 +4421,13 @@
         <v>11</v>
       </c>
       <c r="C205" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D205" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E205" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -4519,13 +4438,13 @@
         <v>13</v>
       </c>
       <c r="C206" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D206" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E206" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
@@ -4536,13 +4455,13 @@
         <v>4</v>
       </c>
       <c r="C207" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D207" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E207" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -4553,13 +4472,13 @@
         <v>39</v>
       </c>
       <c r="C208" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D208" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E208" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
@@ -4570,13 +4489,13 @@
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D209" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E209" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -4587,13 +4506,13 @@
         <v>41</v>
       </c>
       <c r="C210" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D210" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E210" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -4604,13 +4523,13 @@
         <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D211" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E211" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
@@ -4621,13 +4540,13 @@
         <v>17</v>
       </c>
       <c r="C212" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D212" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E212" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
@@ -4638,13 +4557,13 @@
         <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D213" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E213" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -4655,13 +4574,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D214" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E214" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -4672,13 +4591,13 @@
         <v>21</v>
       </c>
       <c r="C215" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D215" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E215" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -4689,13 +4608,13 @@
         <v>5</v>
       </c>
       <c r="C216" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D216" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E216" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
@@ -4706,13 +4625,13 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D217" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E217" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
@@ -4723,13 +4642,13 @@
         <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D218" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E218" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
@@ -4740,13 +4659,13 @@
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D219" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E219" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
@@ -4757,13 +4676,13 @@
         <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D220" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E220" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -4774,13 +4693,13 @@
         <v>33</v>
       </c>
       <c r="C221" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D221" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E221" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -4791,13 +4710,13 @@
         <v>40</v>
       </c>
       <c r="C222" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D222" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E222" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -4808,13 +4727,13 @@
         <v>29</v>
       </c>
       <c r="C223" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D223" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E223" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
@@ -4825,13 +4744,13 @@
         <v>37</v>
       </c>
       <c r="C224" t="s">
+        <v>48</v>
+      </c>
+      <c r="D224" t="s">
         <v>56</v>
       </c>
-      <c r="D224" t="s">
-        <v>64</v>
-      </c>
       <c r="E224" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -4842,13 +4761,13 @@
         <v>23</v>
       </c>
       <c r="C225" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D225" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E225" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -4859,13 +4778,13 @@
         <v>25</v>
       </c>
       <c r="C226" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D226" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E226" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -4876,13 +4795,13 @@
         <v>22</v>
       </c>
       <c r="C227" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D227" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E227" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
@@ -4893,13 +4812,13 @@
         <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D228" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E228" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -4910,13 +4829,13 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D229" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E229" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -4927,13 +4846,13 @@
         <v>36</v>
       </c>
       <c r="C230" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D230" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E230" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
@@ -4944,13 +4863,13 @@
         <v>5</v>
       </c>
       <c r="C231" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D231" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E231" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
@@ -4961,13 +4880,13 @@
         <v>6</v>
       </c>
       <c r="C232" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D232" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E232" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
@@ -4978,13 +4897,13 @@
         <v>13</v>
       </c>
       <c r="C233" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D233" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E233" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
@@ -4995,13 +4914,13 @@
         <v>17</v>
       </c>
       <c r="C234" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D234" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E234" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -5012,13 +4931,13 @@
         <v>4</v>
       </c>
       <c r="C235" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D235" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E235" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -5029,13 +4948,13 @@
         <v>25</v>
       </c>
       <c r="C236" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D236" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E236" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -5046,13 +4965,13 @@
         <v>8</v>
       </c>
       <c r="C237" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D237" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E237" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -5063,13 +4982,13 @@
         <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D238" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E238" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -5080,13 +4999,13 @@
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D239" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E239" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -5097,13 +5016,13 @@
         <v>12</v>
       </c>
       <c r="C240" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D240" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E240" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -5114,13 +5033,13 @@
         <v>11</v>
       </c>
       <c r="C241" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D241" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E241" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -5131,13 +5050,13 @@
         <v>37</v>
       </c>
       <c r="C242" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D242" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E242" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -5148,13 +5067,13 @@
         <v>41</v>
       </c>
       <c r="C243" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D243" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E243" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -5165,13 +5084,13 @@
         <v>38</v>
       </c>
       <c r="C244" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D244" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E244" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -5182,13 +5101,13 @@
         <v>39</v>
       </c>
       <c r="C245" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D245" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E245" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -5199,13 +5118,13 @@
         <v>20</v>
       </c>
       <c r="C246" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D246" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E246" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -5216,13 +5135,13 @@
         <v>22</v>
       </c>
       <c r="C247" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D247" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E247" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -5233,13 +5152,13 @@
         <v>23</v>
       </c>
       <c r="C248" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D248" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E248" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -5250,13 +5169,13 @@
         <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D249" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E249" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -5267,13 +5186,13 @@
         <v>29</v>
       </c>
       <c r="C250" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D250" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E250" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -5284,13 +5203,13 @@
         <v>33</v>
       </c>
       <c r="C251" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D251" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E251" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -5301,13 +5220,13 @@
         <v>18</v>
       </c>
       <c r="C252" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D252" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E252" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -5318,13 +5237,13 @@
         <v>40</v>
       </c>
       <c r="C253" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D253" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E253" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -5335,13 +5254,13 @@
         <v>3</v>
       </c>
       <c r="C254" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D254" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E254" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
@@ -5352,13 +5271,13 @@
         <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D255" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E255" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -5369,13 +5288,13 @@
         <v>20</v>
       </c>
       <c r="C256" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D256" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E256" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -5386,13 +5305,13 @@
         <v>37</v>
       </c>
       <c r="C257" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D257" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E257" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -5403,13 +5322,13 @@
         <v>33</v>
       </c>
       <c r="C258" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D258" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E258" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -5420,13 +5339,13 @@
         <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D259" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E259" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -5437,13 +5356,13 @@
         <v>25</v>
       </c>
       <c r="C260" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D260" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E260" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
@@ -5454,13 +5373,13 @@
         <v>17</v>
       </c>
       <c r="C261" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D261" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E261" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -5471,13 +5390,13 @@
         <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D262" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E262" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
@@ -5488,13 +5407,13 @@
         <v>11</v>
       </c>
       <c r="C263" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D263" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E263" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -5505,13 +5424,13 @@
         <v>4</v>
       </c>
       <c r="C264" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D264" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E264" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -5522,13 +5441,13 @@
         <v>41</v>
       </c>
       <c r="C265" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D265" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E265" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -5539,13 +5458,13 @@
         <v>29</v>
       </c>
       <c r="C266" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D266" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E266" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -5556,13 +5475,13 @@
         <v>36</v>
       </c>
       <c r="C267" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D267" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E267" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -5573,13 +5492,13 @@
         <v>16</v>
       </c>
       <c r="C268" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D268" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E268" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -5590,13 +5509,13 @@
         <v>22</v>
       </c>
       <c r="C269" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D269" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E269" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -5607,13 +5526,13 @@
         <v>38</v>
       </c>
       <c r="C270" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D270" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E270" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -5624,13 +5543,13 @@
         <v>39</v>
       </c>
       <c r="C271" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D271" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E271" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -5641,13 +5560,13 @@
         <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D272" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E272" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -5658,13 +5577,13 @@
         <v>6</v>
       </c>
       <c r="C273" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D273" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E273" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -5675,13 +5594,13 @@
         <v>23</v>
       </c>
       <c r="C274" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D274" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E274" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
@@ -5692,13 +5611,13 @@
         <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D275" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E275" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -5709,13 +5628,13 @@
         <v>13</v>
       </c>
       <c r="C276" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D276" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E276" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -5726,13 +5645,13 @@
         <v>3</v>
       </c>
       <c r="C277" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D277" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E277" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -5743,13 +5662,13 @@
         <v>18</v>
       </c>
       <c r="C278" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D278" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E278" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -5760,13 +5679,13 @@
         <v>40</v>
       </c>
       <c r="C279" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D279" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E279" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -5777,13 +5696,13 @@
         <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D280" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E280" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -5794,13 +5713,13 @@
         <v>25</v>
       </c>
       <c r="C281" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D281" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E281" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
@@ -5811,13 +5730,13 @@
         <v>20</v>
       </c>
       <c r="C282" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D282" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E282" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -5828,13 +5747,13 @@
         <v>29</v>
       </c>
       <c r="C283" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D283" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E283" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -5845,13 +5764,13 @@
         <v>3</v>
       </c>
       <c r="C284" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D284" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E284" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
@@ -5862,13 +5781,13 @@
         <v>17</v>
       </c>
       <c r="C285" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D285" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E285" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
@@ -5879,13 +5798,13 @@
         <v>1</v>
       </c>
       <c r="C286" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D286" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E286" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
@@ -5896,13 +5815,13 @@
         <v>39</v>
       </c>
       <c r="C287" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D287" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E287" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -5913,13 +5832,13 @@
         <v>38</v>
       </c>
       <c r="C288" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D288" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E288" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
@@ -5930,13 +5849,13 @@
         <v>23</v>
       </c>
       <c r="C289" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D289" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E289" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
@@ -5947,13 +5866,13 @@
         <v>21</v>
       </c>
       <c r="C290" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D290" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E290" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -5964,13 +5883,13 @@
         <v>16</v>
       </c>
       <c r="C291" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D291" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E291" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
@@ -5981,13 +5900,13 @@
         <v>40</v>
       </c>
       <c r="C292" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D292" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E292" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
@@ -5998,13 +5917,13 @@
         <v>11</v>
       </c>
       <c r="C293" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D293" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E293" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -6015,13 +5934,13 @@
         <v>18</v>
       </c>
       <c r="C294" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D294" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E294" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -6032,13 +5951,13 @@
         <v>33</v>
       </c>
       <c r="C295" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D295" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E295" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -6049,13 +5968,13 @@
         <v>6</v>
       </c>
       <c r="C296" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D296" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E296" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -6066,13 +5985,13 @@
         <v>5</v>
       </c>
       <c r="C297" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D297" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E297" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
@@ -6083,13 +6002,13 @@
         <v>12</v>
       </c>
       <c r="C298" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D298" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E298" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -6100,13 +6019,13 @@
         <v>4</v>
       </c>
       <c r="C299" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D299" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E299" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -6117,13 +6036,13 @@
         <v>22</v>
       </c>
       <c r="C300" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D300" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E300" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -6134,13 +6053,13 @@
         <v>37</v>
       </c>
       <c r="C301" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D301" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E301" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
@@ -6151,13 +6070,13 @@
         <v>25</v>
       </c>
       <c r="C302" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D302" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E302" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -6168,13 +6087,13 @@
         <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D303" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E303" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -6185,13 +6104,13 @@
         <v>20</v>
       </c>
       <c r="C304" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D304" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E304" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
@@ -6202,13 +6121,13 @@
         <v>11</v>
       </c>
       <c r="C305" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D305" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E305" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -6219,13 +6138,13 @@
         <v>3</v>
       </c>
       <c r="C306" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D306" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E306" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -6236,13 +6155,13 @@
         <v>12</v>
       </c>
       <c r="C307" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D307" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E307" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -6253,13 +6172,13 @@
         <v>38</v>
       </c>
       <c r="C308" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D308" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E308" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -6270,13 +6189,13 @@
         <v>39</v>
       </c>
       <c r="C309" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D309" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E309" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -6287,13 +6206,13 @@
         <v>37</v>
       </c>
       <c r="C310" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D310" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E310" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -6304,13 +6223,13 @@
         <v>33</v>
       </c>
       <c r="C311" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D311" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E311" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -6321,13 +6240,13 @@
         <v>8</v>
       </c>
       <c r="C312" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D312" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E312" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -6338,13 +6257,13 @@
         <v>4</v>
       </c>
       <c r="C313" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D313" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E313" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
@@ -6355,13 +6274,13 @@
         <v>18</v>
       </c>
       <c r="C314" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D314" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E314" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
@@ -6372,13 +6291,13 @@
         <v>7</v>
       </c>
       <c r="C315" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D315" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E315" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -6389,13 +6308,13 @@
         <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D316" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E316" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -6406,13 +6325,13 @@
         <v>22</v>
       </c>
       <c r="C317" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D317" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E317" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -6423,13 +6342,13 @@
         <v>1</v>
       </c>
       <c r="C318" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D318" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E318" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -6440,13 +6359,13 @@
         <v>17</v>
       </c>
       <c r="C319" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D319" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E319" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -6457,13 +6376,13 @@
         <v>5</v>
       </c>
       <c r="C320" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D320" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E320" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -6474,13 +6393,13 @@
         <v>6</v>
       </c>
       <c r="C321" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D321" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E321" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -6491,13 +6410,13 @@
         <v>29</v>
       </c>
       <c r="C322" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D322" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E322" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -6508,13 +6427,13 @@
         <v>40</v>
       </c>
       <c r="C323" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D323" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E323" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -6525,13 +6444,13 @@
         <v>23</v>
       </c>
       <c r="C324" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D324" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E324" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -6542,13 +6461,13 @@
         <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D325" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E325" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -6559,13 +6478,13 @@
         <v>33</v>
       </c>
       <c r="C326" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D326" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E326" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
@@ -6576,13 +6495,13 @@
         <v>37</v>
       </c>
       <c r="C327" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D327" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E327" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -6593,13 +6512,13 @@
         <v>13</v>
       </c>
       <c r="C328" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D328" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E328" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -6610,13 +6529,13 @@
         <v>20</v>
       </c>
       <c r="C329" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D329" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E329" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
@@ -6627,13 +6546,13 @@
         <v>39</v>
       </c>
       <c r="C330" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D330" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E330" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -6644,13 +6563,13 @@
         <v>38</v>
       </c>
       <c r="C331" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D331" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E331" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -6661,13 +6580,13 @@
         <v>25</v>
       </c>
       <c r="C332" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D332" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E332" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -6678,13 +6597,13 @@
         <v>7</v>
       </c>
       <c r="C333" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D333" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E333" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -6695,13 +6614,13 @@
         <v>3</v>
       </c>
       <c r="C334" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D334" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E334" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -6712,13 +6631,13 @@
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D335" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E335" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -6729,13 +6648,13 @@
         <v>12</v>
       </c>
       <c r="C336" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D336" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E336" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -6746,13 +6665,13 @@
         <v>1</v>
       </c>
       <c r="C337" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D337" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E337" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
@@ -6763,13 +6682,13 @@
         <v>4</v>
       </c>
       <c r="C338" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D338" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E338" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
@@ -6780,13 +6699,13 @@
         <v>17</v>
       </c>
       <c r="C339" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D339" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E339" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -6797,13 +6716,13 @@
         <v>29</v>
       </c>
       <c r="C340" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D340" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E340" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -6814,13 +6733,13 @@
         <v>23</v>
       </c>
       <c r="C341" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D341" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E341" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -6831,13 +6750,13 @@
         <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D342" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E342" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -6848,13 +6767,13 @@
         <v>18</v>
       </c>
       <c r="C343" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D343" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E343" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -6865,13 +6784,13 @@
         <v>36</v>
       </c>
       <c r="C344" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D344" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E344" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
@@ -6882,13 +6801,13 @@
         <v>6</v>
       </c>
       <c r="C345" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D345" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E345" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
@@ -6899,13 +6818,13 @@
         <v>5</v>
       </c>
       <c r="C346" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D346" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E346" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -6916,13 +6835,13 @@
         <v>5</v>
       </c>
       <c r="C347" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D347" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E347" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
@@ -6933,13 +6852,13 @@
         <v>40</v>
       </c>
       <c r="C348" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D348" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E348" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
@@ -6950,13 +6869,13 @@
         <v>22</v>
       </c>
       <c r="C349" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D349" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E349" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
@@ -6967,13 +6886,13 @@
         <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D350" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E350" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
@@ -6984,13 +6903,13 @@
         <v>3</v>
       </c>
       <c r="C351" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D351" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E351" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
@@ -7001,13 +6920,13 @@
         <v>36</v>
       </c>
       <c r="C352" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D352" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E352" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
@@ -7018,13 +6937,13 @@
         <v>13</v>
       </c>
       <c r="C353" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D353" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E353" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
@@ -7035,13 +6954,13 @@
         <v>33</v>
       </c>
       <c r="C354" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D354" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E354" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
@@ -7052,13 +6971,13 @@
         <v>37</v>
       </c>
       <c r="C355" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D355" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E355" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
@@ -7069,13 +6988,13 @@
         <v>38</v>
       </c>
       <c r="C356" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D356" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E356" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
@@ -7086,13 +7005,13 @@
         <v>20</v>
       </c>
       <c r="C357" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D357" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E357" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
@@ -7103,13 +7022,13 @@
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D358" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E358" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
@@ -7120,13 +7039,13 @@
         <v>11</v>
       </c>
       <c r="C359" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D359" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E359" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
@@ -7137,13 +7056,13 @@
         <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D360" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E360" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
@@ -7154,13 +7073,13 @@
         <v>4</v>
       </c>
       <c r="C361" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D361" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E361" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
@@ -7171,13 +7090,13 @@
         <v>1</v>
       </c>
       <c r="C362" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D362" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E362" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
@@ -7188,13 +7107,13 @@
         <v>17</v>
       </c>
       <c r="C363" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D363" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E363" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
@@ -7205,13 +7124,13 @@
         <v>18</v>
       </c>
       <c r="C364" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D364" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E364" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
@@ -7222,13 +7141,13 @@
         <v>25</v>
       </c>
       <c r="C365" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D365" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E365" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
@@ -7239,13 +7158,13 @@
         <v>5</v>
       </c>
       <c r="C366" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D366" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E366" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
@@ -7256,13 +7175,13 @@
         <v>39</v>
       </c>
       <c r="C367" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D367" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E367" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.3">
@@ -7273,13 +7192,13 @@
         <v>6</v>
       </c>
       <c r="C368" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D368" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E368" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.3">
@@ -7290,13 +7209,13 @@
         <v>41</v>
       </c>
       <c r="C369" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D369" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E369" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.3">
@@ -7307,13 +7226,13 @@
         <v>22</v>
       </c>
       <c r="C370" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D370" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E370" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.3">
@@ -7324,13 +7243,13 @@
         <v>40</v>
       </c>
       <c r="C371" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D371" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E371" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.3">
@@ -7341,13 +7260,13 @@
         <v>23</v>
       </c>
       <c r="C372" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D372" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E372" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.3">
@@ -7358,13 +7277,13 @@
         <v>21</v>
       </c>
       <c r="C373" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D373" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E373" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.3">
@@ -7375,13 +7294,13 @@
         <v>20</v>
       </c>
       <c r="C374" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D374" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E374" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.3">
@@ -7392,13 +7311,13 @@
         <v>37</v>
       </c>
       <c r="C375" t="s">
+        <v>43</v>
+      </c>
+      <c r="D375" t="s">
         <v>51</v>
       </c>
-      <c r="D375" t="s">
-        <v>59</v>
-      </c>
       <c r="E375" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.3">
@@ -7409,13 +7328,13 @@
         <v>33</v>
       </c>
       <c r="C376" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D376" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E376" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.3">
@@ -7426,13 +7345,13 @@
         <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D377" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E377" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.3">
@@ -7443,13 +7362,13 @@
         <v>11</v>
       </c>
       <c r="C378" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D378" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E378" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.3">
@@ -7460,13 +7379,13 @@
         <v>18</v>
       </c>
       <c r="C379" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D379" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E379" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.3">
@@ -7477,13 +7396,13 @@
         <v>1</v>
       </c>
       <c r="C380" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D380" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E380" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.3">
@@ -7494,13 +7413,13 @@
         <v>39</v>
       </c>
       <c r="C381" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D381" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E381" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.3">
@@ -7511,13 +7430,13 @@
         <v>38</v>
       </c>
       <c r="C382" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D382" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E382" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.3">
@@ -7528,13 +7447,13 @@
         <v>3</v>
       </c>
       <c r="C383" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D383" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E383" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.3">
@@ -7545,13 +7464,13 @@
         <v>7</v>
       </c>
       <c r="C384" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D384" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E384" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.3">
@@ -7562,13 +7481,13 @@
         <v>36</v>
       </c>
       <c r="C385" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D385" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E385" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.3">
@@ -7579,13 +7498,13 @@
         <v>25</v>
       </c>
       <c r="C386" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D386" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E386" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.3">
@@ -7596,13 +7515,13 @@
         <v>4</v>
       </c>
       <c r="C387" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D387" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E387" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.3">
@@ -7613,13 +7532,13 @@
         <v>16</v>
       </c>
       <c r="C388" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D388" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E388" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.3">
@@ -7630,13 +7549,13 @@
         <v>13</v>
       </c>
       <c r="C389" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D389" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E389" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.3">
@@ -7647,13 +7566,13 @@
         <v>17</v>
       </c>
       <c r="C390" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D390" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E390" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.3">
@@ -7664,13 +7583,13 @@
         <v>29</v>
       </c>
       <c r="C391" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D391" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E391" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.3">
@@ -7681,13 +7600,13 @@
         <v>41</v>
       </c>
       <c r="C392" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D392" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E392" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.3">
@@ -7698,13 +7617,13 @@
         <v>22</v>
       </c>
       <c r="C393" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D393" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E393" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.3">
@@ -7715,13 +7634,13 @@
         <v>5</v>
       </c>
       <c r="C394" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D394" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E394" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.3">
@@ -7732,13 +7651,13 @@
         <v>6</v>
       </c>
       <c r="C395" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D395" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E395" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.3">
@@ -7749,13 +7668,13 @@
         <v>23</v>
       </c>
       <c r="C396" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D396" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E396" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.3">
@@ -7766,13 +7685,13 @@
         <v>40</v>
       </c>
       <c r="C397" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D397" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E397" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.3">
@@ -7783,13 +7702,13 @@
         <v>21</v>
       </c>
       <c r="C398" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D398" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E398" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.3">
@@ -7800,13 +7719,13 @@
         <v>20</v>
       </c>
       <c r="C399" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D399" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E399" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.3">
@@ -7817,13 +7736,13 @@
         <v>12</v>
       </c>
       <c r="C400" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D400" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E400" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.3">
@@ -7834,13 +7753,13 @@
         <v>11</v>
       </c>
       <c r="C401" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D401" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E401" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.3">
@@ -7851,13 +7770,13 @@
         <v>16</v>
       </c>
       <c r="C402" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D402" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E402" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.3">
@@ -7868,13 +7787,13 @@
         <v>38</v>
       </c>
       <c r="C403" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D403" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E403" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.3">
@@ -7885,13 +7804,13 @@
         <v>39</v>
       </c>
       <c r="C404" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D404" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E404" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.3">
@@ -7902,13 +7821,13 @@
         <v>1</v>
       </c>
       <c r="C405" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D405" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E405" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.3">
@@ -7919,13 +7838,13 @@
         <v>25</v>
       </c>
       <c r="C406" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D406" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E406" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.3">
@@ -7936,13 +7855,13 @@
         <v>37</v>
       </c>
       <c r="C407" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D407" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E407" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.3">
@@ -7953,13 +7872,13 @@
         <v>33</v>
       </c>
       <c r="C408" t="s">
+        <v>48</v>
+      </c>
+      <c r="D408" t="s">
         <v>56</v>
       </c>
-      <c r="D408" t="s">
-        <v>64</v>
-      </c>
       <c r="E408" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.3">
@@ -7970,13 +7889,13 @@
         <v>18</v>
       </c>
       <c r="C409" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D409" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E409" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.3">
@@ -7987,13 +7906,13 @@
         <v>3</v>
       </c>
       <c r="C410" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D410" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E410" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.3">
@@ -8004,13 +7923,13 @@
         <v>17</v>
       </c>
       <c r="C411" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D411" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E411" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.3">
@@ -8021,13 +7940,13 @@
         <v>36</v>
       </c>
       <c r="C412" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D412" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E412" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.3">
@@ -8038,13 +7957,13 @@
         <v>7</v>
       </c>
       <c r="C413" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D413" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E413" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.3">
@@ -8055,13 +7974,13 @@
         <v>4</v>
       </c>
       <c r="C414" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D414" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E414" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.3">
@@ -8072,13 +7991,13 @@
         <v>23</v>
       </c>
       <c r="C415" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D415" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E415" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.3">
@@ -8089,13 +8008,13 @@
         <v>21</v>
       </c>
       <c r="C416" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D416" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E416" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.3">
@@ -8106,13 +8025,13 @@
         <v>29</v>
       </c>
       <c r="C417" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D417" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E417" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.3">
@@ -8123,13 +8042,13 @@
         <v>40</v>
       </c>
       <c r="C418" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D418" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E418" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.3">
@@ -8140,13 +8059,13 @@
         <v>5</v>
       </c>
       <c r="C419" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D419" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E419" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.3">
@@ -8157,13 +8076,13 @@
         <v>6</v>
       </c>
       <c r="C420" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D420" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E420" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.3">
@@ -8174,13 +8093,13 @@
         <v>22</v>
       </c>
       <c r="C421" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D421" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E421" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.3">
@@ -8191,13 +8110,13 @@
         <v>37</v>
       </c>
       <c r="C422" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D422" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E422" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.3">
@@ -8208,13 +8127,13 @@
         <v>33</v>
       </c>
       <c r="C423" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D423" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E423" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.3">
@@ -8225,13 +8144,13 @@
         <v>16</v>
       </c>
       <c r="C424" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D424" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E424" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.3">
@@ -8242,13 +8161,13 @@
         <v>11</v>
       </c>
       <c r="C425" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D425" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E425" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.3">
@@ -8259,13 +8178,13 @@
         <v>4</v>
       </c>
       <c r="C426" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D426" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E426" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.3">
@@ -8276,13 +8195,13 @@
         <v>12</v>
       </c>
       <c r="C427" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D427" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E427" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.3">
@@ -8293,13 +8212,13 @@
         <v>12</v>
       </c>
       <c r="C428" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D428" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E428" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.3">
@@ -8310,13 +8229,13 @@
         <v>20</v>
       </c>
       <c r="C429" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D429" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E429" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.3">
@@ -8327,13 +8246,13 @@
         <v>1</v>
       </c>
       <c r="C430" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D430" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E430" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.3">
@@ -8344,13 +8263,13 @@
         <v>22</v>
       </c>
       <c r="C431" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D431" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E431" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.3">
@@ -8361,13 +8280,13 @@
         <v>36</v>
       </c>
       <c r="C432" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D432" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E432" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.3">
@@ -8378,13 +8297,13 @@
         <v>25</v>
       </c>
       <c r="C433" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D433" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E433" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.3">
@@ -8395,13 +8314,13 @@
         <v>39</v>
       </c>
       <c r="C434" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D434" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E434" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.3">
@@ -8412,13 +8331,13 @@
         <v>38</v>
       </c>
       <c r="C435" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D435" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E435" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.3">
@@ -8429,13 +8348,13 @@
         <v>23</v>
       </c>
       <c r="C436" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D436" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E436" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.3">
@@ -8446,13 +8365,13 @@
         <v>21</v>
       </c>
       <c r="C437" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D437" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E437" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.3">
@@ -8463,13 +8382,13 @@
         <v>18</v>
       </c>
       <c r="C438" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D438" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E438" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.3">
@@ -8480,13 +8399,13 @@
         <v>17</v>
       </c>
       <c r="C439" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D439" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E439" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.3">
@@ -8497,13 +8416,13 @@
         <v>40</v>
       </c>
       <c r="C440" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D440" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E440" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.3">
@@ -8514,13 +8433,13 @@
         <v>7</v>
       </c>
       <c r="C441" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D441" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E441" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.3">
@@ -8531,13 +8450,13 @@
         <v>3</v>
       </c>
       <c r="C442" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D442" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E442" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.3">
@@ -8548,13 +8467,13 @@
         <v>5</v>
       </c>
       <c r="C443" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D443" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E443" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.3">
@@ -8565,13 +8484,13 @@
         <v>6</v>
       </c>
       <c r="C444" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D444" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E444" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.3">
@@ -8582,13 +8501,13 @@
         <v>3</v>
       </c>
       <c r="C445" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D445" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E445" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.3">
@@ -8599,13 +8518,13 @@
         <v>38</v>
       </c>
       <c r="C446" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D446" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E446" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.3">
@@ -8616,13 +8535,13 @@
         <v>39</v>
       </c>
       <c r="C447" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D447" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E447" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.3">
@@ -8633,13 +8552,13 @@
         <v>20</v>
       </c>
       <c r="C448" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D448" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E448" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.3">
@@ -8650,13 +8569,13 @@
         <v>1</v>
       </c>
       <c r="C449" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D449" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E449" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.3">
@@ -8667,13 +8586,13 @@
         <v>25</v>
       </c>
       <c r="C450" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D450" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E450" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.3">
@@ -8684,13 +8603,13 @@
         <v>33</v>
       </c>
       <c r="C451" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D451" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E451" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.3">
@@ -8701,13 +8620,13 @@
         <v>37</v>
       </c>
       <c r="C452" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D452" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E452" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.3">
@@ -8718,13 +8637,13 @@
         <v>12</v>
       </c>
       <c r="C453" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D453" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E453" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.3">
@@ -8735,13 +8654,13 @@
         <v>11</v>
       </c>
       <c r="C454" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D454" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E454" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.3">
@@ -8752,13 +8671,13 @@
         <v>4</v>
       </c>
       <c r="C455" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D455" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E455" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.3">
@@ -8769,13 +8688,13 @@
         <v>13</v>
       </c>
       <c r="C456" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D456" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E456" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.3">
@@ -8786,13 +8705,13 @@
         <v>17</v>
       </c>
       <c r="C457" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D457" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E457" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.3">
@@ -8803,13 +8722,13 @@
         <v>7</v>
       </c>
       <c r="C458" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D458" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E458" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.3">
@@ -8820,13 +8739,13 @@
         <v>16</v>
       </c>
       <c r="C459" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D459" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E459" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.3">
@@ -8837,13 +8756,13 @@
         <v>18</v>
       </c>
       <c r="C460" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D460" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E460" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.3">
@@ -8854,13 +8773,13 @@
         <v>29</v>
       </c>
       <c r="C461" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D461" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E461" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.3">
@@ -8871,13 +8790,13 @@
         <v>22</v>
       </c>
       <c r="C462" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D462" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E462" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.3">
@@ -8888,13 +8807,13 @@
         <v>21</v>
       </c>
       <c r="C463" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D463" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E463" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.3">
@@ -8905,13 +8824,13 @@
         <v>23</v>
       </c>
       <c r="C464" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D464" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E464" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.3">
@@ -8922,13 +8841,13 @@
         <v>40</v>
       </c>
       <c r="C465" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D465" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E465" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.3">
@@ -8939,13 +8858,13 @@
         <v>5</v>
       </c>
       <c r="C466" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D466" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E466" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.3">
@@ -8956,13 +8875,13 @@
         <v>6</v>
       </c>
       <c r="C467" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D467" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E467" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.3">
@@ -8973,13 +8892,13 @@
         <v>20</v>
       </c>
       <c r="C468" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D468" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E468" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.3">
@@ -8990,13 +8909,13 @@
         <v>13</v>
       </c>
       <c r="C469" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D469" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E469" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.3">
@@ -9007,13 +8926,13 @@
         <v>33</v>
       </c>
       <c r="C470" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D470" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E470" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.3">
@@ -9024,13 +8943,13 @@
         <v>37</v>
       </c>
       <c r="C471" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D471" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E471" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.3">
@@ -9041,13 +8960,13 @@
         <v>17</v>
       </c>
       <c r="C472" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D472" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E472" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.3">
@@ -9058,13 +8977,13 @@
         <v>25</v>
       </c>
       <c r="C473" t="s">
+        <v>43</v>
+      </c>
+      <c r="D473" t="s">
         <v>51</v>
       </c>
-      <c r="D473" t="s">
-        <v>59</v>
-      </c>
       <c r="E473" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.3">
@@ -9075,13 +8994,13 @@
         <v>16</v>
       </c>
       <c r="C474" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D474" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E474" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.3">
@@ -9092,13 +9011,13 @@
         <v>38</v>
       </c>
       <c r="C475" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D475" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E475" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.3">
@@ -9109,13 +9028,13 @@
         <v>39</v>
       </c>
       <c r="C476" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D476" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E476" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.3">
@@ -9126,13 +9045,13 @@
         <v>7</v>
       </c>
       <c r="C477" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D477" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E477" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.3">
@@ -9143,13 +9062,13 @@
         <v>4</v>
       </c>
       <c r="C478" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D478" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E478" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.3">
@@ -9160,13 +9079,13 @@
         <v>11</v>
       </c>
       <c r="C479" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D479" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E479" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.3">
@@ -9177,13 +9096,13 @@
         <v>22</v>
       </c>
       <c r="C480" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D480" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E480" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.3">
@@ -9194,13 +9113,13 @@
         <v>41</v>
       </c>
       <c r="C481" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D481" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E481" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.3">
@@ -9211,13 +9130,13 @@
         <v>36</v>
       </c>
       <c r="C482" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D482" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E482" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.3">
@@ -9228,13 +9147,13 @@
         <v>29</v>
       </c>
       <c r="C483" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D483" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E483" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.3">
@@ -9245,13 +9164,13 @@
         <v>12</v>
       </c>
       <c r="C484" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D484" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E484" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.3">
@@ -9262,13 +9181,13 @@
         <v>18</v>
       </c>
       <c r="C485" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D485" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E485" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.3">
@@ -9279,13 +9198,13 @@
         <v>3</v>
       </c>
       <c r="C486" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D486" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E486" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.3">
@@ -9296,13 +9215,13 @@
         <v>23</v>
       </c>
       <c r="C487" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D487" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E487" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.3">
@@ -9313,13 +9232,13 @@
         <v>21</v>
       </c>
       <c r="C488" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D488" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E488" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.3">
@@ -9330,13 +9249,13 @@
         <v>40</v>
       </c>
       <c r="C489" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D489" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E489" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.3">
@@ -9347,13 +9266,13 @@
         <v>6</v>
       </c>
       <c r="C490" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D490" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E490" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.3">
@@ -9364,13 +9283,13 @@
         <v>5</v>
       </c>
       <c r="C491" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D491" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E491" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.3">
@@ -9381,13 +9300,13 @@
         <v>36</v>
       </c>
       <c r="C492" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D492" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E492" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.3">
@@ -9398,13 +9317,13 @@
         <v>7</v>
       </c>
       <c r="C493" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D493" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E493" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.3">
@@ -9415,13 +9334,13 @@
         <v>20</v>
       </c>
       <c r="C494" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D494" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E494" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.3">
@@ -9432,13 +9351,13 @@
         <v>1</v>
       </c>
       <c r="C495" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D495" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E495" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.3">
@@ -9449,13 +9368,13 @@
         <v>38</v>
       </c>
       <c r="C496" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D496" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E496" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.3">
@@ -9466,13 +9385,13 @@
         <v>25</v>
       </c>
       <c r="C497" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D497" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E497" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.3">
@@ -9483,13 +9402,13 @@
         <v>37</v>
       </c>
       <c r="C498" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D498" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E498" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.3">
@@ -9500,13 +9419,13 @@
         <v>39</v>
       </c>
       <c r="C499" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D499" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E499" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.3">
@@ -9517,13 +9436,13 @@
         <v>33</v>
       </c>
       <c r="C500" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D500" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E500" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.3">
@@ -9534,13 +9453,13 @@
         <v>11</v>
       </c>
       <c r="C501" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D501" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E501" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.3">
@@ -9551,13 +9470,13 @@
         <v>17</v>
       </c>
       <c r="C502" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D502" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E502" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.3">
@@ -9568,13 +9487,13 @@
         <v>18</v>
       </c>
       <c r="C503" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D503" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E503" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.3">
@@ -9585,13 +9504,13 @@
         <v>12</v>
       </c>
       <c r="C504" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D504" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E504" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.3">
@@ -9602,13 +9521,13 @@
         <v>41</v>
       </c>
       <c r="C505" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D505" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E505" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.3">
@@ -9619,13 +9538,13 @@
         <v>23</v>
       </c>
       <c r="C506" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D506" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E506" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.3">
@@ -9636,13 +9555,13 @@
         <v>21</v>
       </c>
       <c r="C507" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D507" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E507" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.3">
@@ -9653,13 +9572,13 @@
         <v>40</v>
       </c>
       <c r="C508" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D508" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E508" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.3">
@@ -9670,13 +9589,13 @@
         <v>13</v>
       </c>
       <c r="C509" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D509" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E509" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.3">
@@ -9687,13 +9606,13 @@
         <v>16</v>
       </c>
       <c r="C510" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D510" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E510" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.3">
@@ -9704,13 +9623,13 @@
         <v>5</v>
       </c>
       <c r="C511" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D511" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E511" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.3">
@@ -9721,13 +9640,13 @@
         <v>4</v>
       </c>
       <c r="C512" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D512" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E512" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.3">
@@ -9738,13 +9657,13 @@
         <v>29</v>
       </c>
       <c r="C513" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D513" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E513" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.3">
@@ -9755,13 +9674,13 @@
         <v>6</v>
       </c>
       <c r="C514" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D514" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E514" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.3">
@@ -9772,13 +9691,13 @@
         <v>3</v>
       </c>
       <c r="C515" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D515" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E515" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
